--- a/natmiOut/OldD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>49.1552921277173</v>
+        <v>0.3044395</v>
       </c>
       <c r="H2">
-        <v>49.1552921277173</v>
+        <v>0.6088789999999999</v>
       </c>
       <c r="I2">
-        <v>0.3144203760857482</v>
+        <v>0.001820844915993209</v>
       </c>
       <c r="J2">
-        <v>0.3144203760857482</v>
+        <v>0.001214730854269235</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.01587798018174</v>
+        <v>1.307929333333333</v>
       </c>
       <c r="N2">
-        <v>4.01587798018174</v>
+        <v>3.923788</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="Q2">
-        <v>197.4016552651007</v>
+        <v>0.3981853522753333</v>
       </c>
       <c r="R2">
-        <v>197.4016552651007</v>
+        <v>2.389112113652</v>
       </c>
       <c r="S2">
-        <v>0.3144203760857482</v>
+        <v>0.000444727520330522</v>
       </c>
       <c r="T2">
-        <v>0.3144203760857482</v>
+        <v>0.0002966887712089745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>106.802536255003</v>
+        <v>0.3044395</v>
       </c>
       <c r="H3">
-        <v>106.802536255003</v>
+        <v>0.6088789999999999</v>
       </c>
       <c r="I3">
-        <v>0.6831592726365767</v>
+        <v>0.001820844915993209</v>
       </c>
       <c r="J3">
-        <v>0.6831592726365767</v>
+        <v>0.001214730854269235</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.01587798018174</v>
+        <v>4.047117</v>
       </c>
       <c r="N3">
-        <v>4.01587798018174</v>
+        <v>12.141351</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7557576065790654</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7557576065790653</v>
       </c>
       <c r="Q3">
-        <v>428.9059535740285</v>
+        <v>1.2321022759215</v>
       </c>
       <c r="R3">
-        <v>428.9059535740285</v>
+        <v>7.392613655529</v>
       </c>
       <c r="S3">
-        <v>0.6831592726365767</v>
+        <v>0.001376117395662687</v>
       </c>
       <c r="T3">
-        <v>0.6831592726365767</v>
+        <v>0.0009180420830602606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.339142916047333</v>
+        <v>0.03714233333333333</v>
       </c>
       <c r="H4">
-        <v>0.339142916047333</v>
+        <v>0.111427</v>
       </c>
       <c r="I4">
-        <v>0.002169317658276963</v>
+        <v>0.0002221473521606924</v>
       </c>
       <c r="J4">
-        <v>0.002169317658276963</v>
+        <v>0.0002223000216769803</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.01587798018174</v>
+        <v>1.307929333333333</v>
       </c>
       <c r="N4">
-        <v>4.01587798018174</v>
+        <v>3.923788</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="Q4">
-        <v>1.361956568689109</v>
+        <v>0.04857954727511111</v>
       </c>
       <c r="R4">
-        <v>1.361956568689109</v>
+        <v>0.437215925476</v>
       </c>
       <c r="S4">
-        <v>0.002169317658276963</v>
+        <v>5.425780098385074E-05</v>
       </c>
       <c r="T4">
-        <v>0.002169317658276963</v>
+        <v>5.42950893519113E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03714233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.111427</v>
+      </c>
+      <c r="I5">
+        <v>0.0002221473521606924</v>
+      </c>
+      <c r="J5">
+        <v>0.0002223000216769803</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.047117</v>
+      </c>
+      <c r="N5">
+        <v>12.141351</v>
+      </c>
+      <c r="O5">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P5">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q5">
+        <v>0.150319368653</v>
+      </c>
+      <c r="R5">
+        <v>1.352874317877</v>
+      </c>
+      <c r="S5">
+        <v>0.0001678895511768417</v>
+      </c>
+      <c r="T5">
+        <v>0.000168004932325069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>57.75366533333334</v>
+      </c>
+      <c r="H6">
+        <v>173.260996</v>
+      </c>
+      <c r="I6">
+        <v>0.3454232052745234</v>
+      </c>
+      <c r="J6">
+        <v>0.3456605954263796</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.923788</v>
+      </c>
+      <c r="O6">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P6">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q6">
+        <v>75.53771299698312</v>
+      </c>
+      <c r="R6">
+        <v>679.8394169728481</v>
+      </c>
+      <c r="S6">
+        <v>0.08436699039938039</v>
+      </c>
+      <c r="T6">
+        <v>0.08442497113824429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>57.75366533333334</v>
+      </c>
+      <c r="H7">
+        <v>173.260996</v>
+      </c>
+      <c r="I7">
+        <v>0.3454232052745234</v>
+      </c>
+      <c r="J7">
+        <v>0.3456605954263796</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.047117</v>
+      </c>
+      <c r="N7">
+        <v>12.141351</v>
+      </c>
+      <c r="O7">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P7">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q7">
+        <v>233.735840782844</v>
+      </c>
+      <c r="R7">
+        <v>2103.622567045596</v>
+      </c>
+      <c r="S7">
+        <v>0.261056214875143</v>
+      </c>
+      <c r="T7">
+        <v>0.2612356242881352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>108.209114</v>
+      </c>
+      <c r="H8">
+        <v>324.627342</v>
+      </c>
+      <c r="I8">
+        <v>0.6471959620582403</v>
+      </c>
+      <c r="J8">
+        <v>0.6476407438371354</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.923788</v>
+      </c>
+      <c r="O8">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P8">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q8">
+        <v>141.5298743346107</v>
+      </c>
+      <c r="R8">
+        <v>1273.768869011496</v>
+      </c>
+      <c r="S8">
+        <v>0.158072690785469</v>
+      </c>
+      <c r="T8">
+        <v>0.1581813253516964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>108.209114</v>
+      </c>
+      <c r="H9">
+        <v>324.627342</v>
+      </c>
+      <c r="I9">
+        <v>0.6471959620582403</v>
+      </c>
+      <c r="J9">
+        <v>0.6476407438371354</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.047117</v>
+      </c>
+      <c r="N9">
+        <v>12.141351</v>
+      </c>
+      <c r="O9">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P9">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q9">
+        <v>437.934944824338</v>
+      </c>
+      <c r="R9">
+        <v>3941.414503419042</v>
+      </c>
+      <c r="S9">
+        <v>0.4891232712727713</v>
+      </c>
+      <c r="T9">
+        <v>0.489459418485439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.852431</v>
+      </c>
+      <c r="H10">
+        <v>2.557293</v>
+      </c>
+      <c r="I10">
+        <v>0.005098368157170826</v>
+      </c>
+      <c r="J10">
+        <v>0.005101871981964784</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.923788</v>
+      </c>
+      <c r="O10">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P10">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q10">
+        <v>1.114919509542667</v>
+      </c>
+      <c r="R10">
+        <v>10.034275585884</v>
+      </c>
+      <c r="S10">
+        <v>0.001245237641248482</v>
+      </c>
+      <c r="T10">
+        <v>0.001246093423802286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.852431</v>
+      </c>
+      <c r="H11">
+        <v>2.557293</v>
+      </c>
+      <c r="I11">
+        <v>0.005098368157170826</v>
+      </c>
+      <c r="J11">
+        <v>0.005101871981964784</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.047117</v>
+      </c>
+      <c r="N11">
+        <v>12.141351</v>
+      </c>
+      <c r="O11">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P11">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q11">
+        <v>3.449887991427</v>
+      </c>
+      <c r="R11">
+        <v>31.048991922843</v>
+      </c>
+      <c r="S11">
+        <v>0.003853130515922344</v>
+      </c>
+      <c r="T11">
+        <v>0.003855778558162497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.0392456463827518</v>
-      </c>
-      <c r="H5">
-        <v>0.0392456463827518</v>
-      </c>
-      <c r="I5">
-        <v>0.0002510336193981264</v>
-      </c>
-      <c r="J5">
-        <v>0.0002510336193981264</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.01587798018174</v>
-      </c>
-      <c r="N5">
-        <v>4.01587798018174</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.1576057271264921</v>
-      </c>
-      <c r="R5">
-        <v>0.1576057271264921</v>
-      </c>
-      <c r="S5">
-        <v>0.0002510336193981264</v>
-      </c>
-      <c r="T5">
-        <v>0.0002510336193981264</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.040039</v>
+      </c>
+      <c r="H12">
+        <v>0.080078</v>
+      </c>
+      <c r="I12">
+        <v>0.0002394722419116183</v>
+      </c>
+      <c r="J12">
+        <v>0.0001597578785738576</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.923788</v>
+      </c>
+      <c r="O12">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P12">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q12">
+        <v>0.05236818257733333</v>
+      </c>
+      <c r="R12">
+        <v>0.314209095464</v>
+      </c>
+      <c r="S12">
+        <v>5.84892735223707E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.901964663073001E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.040039</v>
+      </c>
+      <c r="H13">
+        <v>0.080078</v>
+      </c>
+      <c r="I13">
+        <v>0.0002394722419116183</v>
+      </c>
+      <c r="J13">
+        <v>0.0001597578785738576</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.047117</v>
+      </c>
+      <c r="N13">
+        <v>12.141351</v>
+      </c>
+      <c r="O13">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P13">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q13">
+        <v>0.162042517563</v>
+      </c>
+      <c r="R13">
+        <v>0.972255105378</v>
+      </c>
+      <c r="S13">
+        <v>0.0001809829683892476</v>
+      </c>
+      <c r="T13">
+        <v>0.0001207382319431275</v>
       </c>
     </row>
   </sheetData>
